--- a/Functional Test - Facebook Sign Up Form.xlsx
+++ b/Functional Test - Facebook Sign Up Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_f8d\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA3C8A2A-FB6F-4AB4-A670-141614E6241E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9491D1ED-A5A0-4ED9-A7AC-A162C9803D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="77">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>01.00</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Test Facebook Sign Up Form</t>
   </si>
   <si>
     <t>QA Tester’s Log</t>
@@ -568,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -789,6 +795,17 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -845,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -923,9 +940,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -938,13 +952,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,12 +967,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1007,7 +1021,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1166,7 +1180,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,7 +1192,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,6 +1203,12 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1474,7 +1497,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1494,43 +1517,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="108"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="108" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="22"/>
@@ -1538,9 +1561,13 @@
       <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="A3" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="115" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1551,10 +1578,10 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="58"/>
+      <c r="A4" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="57"/>
       <c r="C4" s="14"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1566,8 +1593,8 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1578,25 +1605,25 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="58"/>
+      <c r="A6" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="57"/>
       <c r="C6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="61"/>
+      <c r="D6" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="60"/>
       <c r="F6" s="114">
         <v>44691</v>
       </c>
       <c r="G6" s="113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="21"/>
@@ -1617,25 +1644,25 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="32" t="s">
+      <c r="F8" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="34" t="s">
-        <v>17</v>
+      <c r="G8" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>19</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
@@ -1649,23 +1676,23 @@
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
+      <c r="B9" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="31">
+      <c r="F9" s="30">
         <v>1</v>
       </c>
-      <c r="G9" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="31">
+      <c r="G9" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="30">
         <v>1</v>
       </c>
-      <c r="I9" s="29" t="s">
-        <v>21</v>
+      <c r="I9" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -1679,23 +1706,23 @@
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
+      <c r="B10" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <v>2</v>
       </c>
-      <c r="G10" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="31">
+      <c r="G10" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="30">
         <v>2</v>
       </c>
-      <c r="I10" s="29" t="s">
-        <v>24</v>
+      <c r="I10" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -1709,23 +1736,23 @@
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
+      <c r="B11" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>3</v>
       </c>
-      <c r="G11" s="111" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="31">
+      <c r="G11" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="30">
         <v>3</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>27</v>
+      <c r="I11" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -1739,23 +1766,23 @@
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="B12" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="31">
+      <c r="F12" s="30">
         <v>4</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="31">
+      <c r="G12" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="30">
         <v>4</v>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>30</v>
+      <c r="I12" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -1771,17 +1798,17 @@
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="31">
+      <c r="F13" s="30">
         <v>5</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="31">
+      <c r="G13" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="30">
         <v>5</v>
       </c>
-      <c r="I13" s="30" t="s">
-        <v>32</v>
+      <c r="I13" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -1797,17 +1824,17 @@
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14" s="31">
+      <c r="F14" s="30">
         <v>6</v>
       </c>
-      <c r="G14" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="31">
+      <c r="G14" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="30">
         <v>6</v>
       </c>
-      <c r="I14" s="30" t="s">
-        <v>34</v>
+      <c r="I14" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -1823,17 +1850,17 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="31">
+      <c r="F15" s="30">
         <v>7</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="31">
+      <c r="G15" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="30">
         <v>7</v>
       </c>
-      <c r="I15" s="30" t="s">
-        <v>36</v>
+      <c r="I15" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -1849,17 +1876,17 @@
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="31">
+      <c r="F16" s="30">
         <v>8</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="31">
+      <c r="G16" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="30">
         <v>8</v>
       </c>
-      <c r="I16" s="30" t="s">
-        <v>38</v>
+      <c r="I16" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
@@ -1888,15 +1915,15 @@
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="106" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="A18" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
@@ -1905,317 +1932,317 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="70" t="s">
+      <c r="A20" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="37" t="s">
+      <c r="C20" s="61"/>
+      <c r="D20" s="69" t="s">
         <v>44</v>
       </c>
+      <c r="E20" s="70"/>
+      <c r="F20" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="36" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="38"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1">
       <c r="A22" s="18">
         <v>1</v>
       </c>
-      <c r="B22" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="43" t="s">
+      <c r="B22" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="55"/>
+      <c r="F22" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="12.75" customHeight="1">
       <c r="A23" s="15">
         <v>2</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="47" t="s">
+      <c r="B23" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="12.75" customHeight="1">
       <c r="A24" s="15">
         <v>3</v>
       </c>
-      <c r="B24" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+      <c r="B24" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="12.75" customHeight="1">
       <c r="A25" s="15">
         <v>4</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
+      <c r="B25" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="12.75" customHeight="1">
       <c r="A26" s="15">
         <v>5</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="12.75" customHeight="1">
       <c r="A27" s="15">
         <v>6</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
+      <c r="B27" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="12.75" customHeight="1">
       <c r="A28" s="15">
         <v>7</v>
       </c>
-      <c r="B28" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
+      <c r="B28" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
       <c r="I28" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="12.75" customHeight="1">
       <c r="A29" s="15">
         <v>8</v>
       </c>
-      <c r="B29" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
+      <c r="B29" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="12.75" customHeight="1">
       <c r="A30" s="15">
         <v>9</v>
       </c>
-      <c r="B30" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
+      <c r="B30" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
       <c r="I30" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="12.75" customHeight="1">
       <c r="A31" s="15">
         <v>10</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
+      <c r="B31" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
       <c r="I31" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="12.75" customHeight="1">
       <c r="A32" s="15">
         <v>12</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
+      <c r="B32" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="12.75" customHeight="1">
       <c r="A33" s="15">
         <v>13</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
       <c r="I33" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
+      <c r="A35" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
@@ -2224,290 +2251,291 @@
       <c r="K35" s="11"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="70" t="s">
+      <c r="A37" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="40" t="s">
+      <c r="B37" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="72"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="40" t="s">
+      <c r="C37" s="61"/>
+      <c r="D37" s="69" t="s">
         <v>44</v>
       </c>
+      <c r="E37" s="70"/>
+      <c r="F37" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="71"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="39" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="62"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="40"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="39"/>
     </row>
     <row r="39" spans="1:11" ht="12.75" customHeight="1">
       <c r="A39" s="18">
         <v>1</v>
       </c>
-      <c r="B39" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="43" t="s">
+      <c r="B39" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="F39" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
       <c r="I39" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="12.75" customHeight="1">
       <c r="A40" s="15">
         <v>2</v>
       </c>
-      <c r="B40" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="47" t="s">
+      <c r="B40" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="46"/>
+      <c r="F40" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
       <c r="I40" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="15">
         <v>3</v>
       </c>
-      <c r="B41" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
+      <c r="B41" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
       <c r="I41" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="12.75" customHeight="1">
       <c r="A42" s="15">
         <v>4</v>
       </c>
-      <c r="B42" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
+      <c r="B42" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
       <c r="I42" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="12.75" customHeight="1">
       <c r="A43" s="15">
         <v>5</v>
       </c>
-      <c r="B43" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
+      <c r="B43" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
       <c r="I43" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="15">
         <v>6</v>
       </c>
-      <c r="B44" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
+      <c r="B44" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
       <c r="I44" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="15">
         <v>7</v>
       </c>
-      <c r="B45" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
+      <c r="B45" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="41"/>
+      <c r="F45" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
       <c r="I45" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="12.75" customHeight="1">
       <c r="A46" s="15">
         <v>8</v>
       </c>
-      <c r="B46" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
+      <c r="B46" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
       <c r="I46" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="12.75" customHeight="1">
       <c r="A47" s="15">
         <v>9</v>
       </c>
-      <c r="B47" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
+      <c r="B47" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="41"/>
+      <c r="D47" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="41"/>
+      <c r="F47" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
       <c r="I47" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="15">
         <v>10</v>
       </c>
-      <c r="B48" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="42"/>
-      <c r="D48" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
+      <c r="B48" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="41"/>
+      <c r="F48" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
       <c r="I48" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="15">
         <v>12</v>
       </c>
-      <c r="B49" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="47"/>
-      <c r="F49" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
+      <c r="B49" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="45"/>
+      <c r="D49" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="46"/>
+      <c r="F49" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
       <c r="I49" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="15">
         <v>13</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="47"/>
-      <c r="F50" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="46"/>
+      <c r="F50" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
       <c r="I50" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="98">
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="F50:H50"/>
@@ -2679,40 +2707,40 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
+      <c r="B1" s="84"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="84"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2"/>
@@ -2728,10 +2756,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="100"/>
+      <c r="A4" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="99"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2756,23 +2784,23 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="74"/>
+      <c r="A6" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="73"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
+      <c r="D6" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="73"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3"/>
@@ -2789,92 +2817,92 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="103" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="95"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="2"/>
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="83"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="2"/>
       <c r="F11" s="8">
         <v>3</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="83"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="2"/>
       <c r="F12" s="8">
         <v>4</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="83"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2"/>
@@ -2891,7 +2919,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2905,118 +2933,118 @@
       <c r="K14" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77" t="s">
+      <c r="A16" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="75" t="s">
+      <c r="B16" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="75" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="102"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="92"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="83"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="82"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="82"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="83"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="82"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="83"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="82"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="83"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="82"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -3091,40 +3119,40 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
+      <c r="B1" s="84"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="84"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2"/>
@@ -3140,10 +3168,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="100"/>
+      <c r="A4" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="99"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3168,23 +3196,23 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="74"/>
+      <c r="A6" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="73"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
+      <c r="D6" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="73"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3"/>
@@ -3201,92 +3229,92 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="103" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="95"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="2"/>
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="83"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="2"/>
       <c r="F11" s="8">
         <v>3</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="83"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="2"/>
       <c r="F12" s="8">
         <v>4</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="83"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2"/>
@@ -3303,7 +3331,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3317,118 +3345,118 @@
       <c r="K14" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77" t="s">
+      <c r="A16" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="75" t="s">
+      <c r="B16" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="75" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="102"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="92"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="83"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="82"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="82"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="83"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="82"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="83"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="82"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="83"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="82"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="53">
